--- a/data/trans_orig/barthel-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>96,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>98,97</t>
+          <t>98,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>86,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,52</t>
+          <t>95,59</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>91,69</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>97,09</t>
+          <t>97,18</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,51; 98,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>97,55; 99,51</t>
+          <t>97,54; 99,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,89; 91,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,45; 97,54</t>
+          <t>92,61; 97,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,13; 94,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,19; 98,26</t>
+          <t>95,33; 98,31</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,64</t>
+          <t>95,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,95</t>
+          <t>90,22</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>92,11</t>
+          <t>92,33</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,17; 97,69</t>
+          <t>92,24; 97,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,04; 92,41</t>
+          <t>87,44; 92,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>89,65; 93,85</t>
+          <t>89,97; 93,98</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,9</t>
+          <t>91,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,93</t>
+          <t>90,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,83</t>
+          <t>90,95</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,25; 94,43</t>
+          <t>88,35; 94,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,55; 92,48</t>
+          <t>86,8; 92,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>88,6; 92,64</t>
+          <t>88,78; 92,78</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>96,26</t>
+          <t>95,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,11</t>
+          <t>98,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>91,46</t>
+          <t>94,02</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,04</t>
+          <t>94,07</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>93,6</t>
+          <t>94,79</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>95,73</t>
+          <t>95,77</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,9; 97,76</t>
+          <t>91,99; 97,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,96; 98,85</t>
+          <t>97,01; 98,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,72; 93,79</t>
+          <t>91,18; 96,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,21; 95,69</t>
+          <t>92,24; 95,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,64; 95,03</t>
+          <t>92,76; 96,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,43; 96,67</t>
+          <t>94,48; 96,71</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94,27</t>
+          <t>94,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>91,5</t>
+          <t>91,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>92,52</t>
+          <t>92,65</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,74; 96,76</t>
+          <t>90,85; 96,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,9; 94,0</t>
+          <t>88,18; 94,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>90,0; 94,4</t>
+          <t>90,27; 94,49</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>93,28</t>
+          <t>93,3</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>87,59</t>
+          <t>87,62</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,3</t>
+          <t>90,35</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,37; 95,57</t>
+          <t>90,39; 95,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,57; 90,66</t>
+          <t>83,69; 90,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>87,91; 92,18</t>
+          <t>88,0; 92,29</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>97,2</t>
+          <t>97,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>95,5</t>
+          <t>96,92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>96,07</t>
+          <t>97,0</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,57; 98,14</t>
+          <t>95,62; 98,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,26; 98,55</t>
+          <t>91,4; 99,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,08; 98,31</t>
+          <t>94,18; 98,99</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>97,8</t>
+          <t>97,83</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>94,3</t>
+          <t>94,7</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>95,82</t>
+          <t>96,08</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>96,63; 98,55</t>
+          <t>96,68; 98,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>91,81; 95,67</t>
+          <t>93,1; 95,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>94,35; 96,78</t>
+          <t>95,13; 96,94</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>96,28</t>
+          <t>96,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>93,01</t>
+          <t>93,85</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,34</t>
+          <t>94,8</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,55; 96,85</t>
+          <t>95,59; 96,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>91,82; 95,1</t>
+          <t>92,07; 96,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>93,67; 95,48</t>
+          <t>93,92; 96,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/barthel-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,02; 99,3</t>
+          <t>92,78; 99,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,51; 98,48</t>
+          <t>93,41; 98,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,82; 96,73</t>
+          <t>88,06; 96,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>97,54; 99,52</t>
+          <t>97,82; 99,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,16; 99,71</t>
+          <t>91,75; 99,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,89; 91,29</t>
+          <t>80,29; 91,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,7; 94,84</t>
+          <t>84,67; 94,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,61; 97,59</t>
+          <t>92,41; 97,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>94,61; 99,1</t>
+          <t>94,77; 99,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>88,13; 94,34</t>
+          <t>87,97; 94,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>88,41; 94,8</t>
+          <t>88,5; 94,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,33; 98,31</t>
+          <t>95,42; 98,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,38; 99,41</t>
+          <t>95,33; 99,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,22; 97,35</t>
+          <t>88,97; 96,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,91; 99,11</t>
+          <t>94,89; 99,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,24; 97,7</t>
+          <t>92,15; 97,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,01; 97,23</t>
+          <t>91,16; 97,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,54; 92,55</t>
+          <t>83,12; 92,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,35; 96,07</t>
+          <t>89,54; 96,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,44; 92,59</t>
+          <t>87,44; 92,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,82; 97,77</t>
+          <t>93,64; 97,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,52; 93,58</t>
+          <t>86,74; 93,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,71; 96,9</t>
+          <t>92,98; 96,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>89,97; 93,98</t>
+          <t>90,14; 94,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,65; 99,59</t>
+          <t>93,66; 99,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,0; 96,45</t>
+          <t>84,23; 96,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,69; 98,81</t>
+          <t>92,51; 98,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,35; 94,47</t>
+          <t>88,57; 94,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,55; 98,05</t>
+          <t>92,91; 98,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,96; 93,81</t>
+          <t>82,5; 93,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,19; 98,21</t>
+          <t>86,72; 98,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,8; 92,61</t>
+          <t>86,65; 92,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,84; 98,36</t>
+          <t>94,35; 98,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>85,07; 93,47</t>
+          <t>85,47; 93,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,15; 97,77</t>
+          <t>90,16; 97,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>88,78; 92,78</t>
+          <t>88,83; 92,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,12; 99,75</t>
+          <t>95,28; 99,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,99; 97,84</t>
+          <t>91,73; 97,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,85; 97,5</t>
+          <t>91,64; 97,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,01; 98,86</t>
+          <t>97,12; 98,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,18; 97,95</t>
+          <t>93,28; 97,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,18; 96,0</t>
+          <t>91,37; 96,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,38; 97,27</t>
+          <t>93,23; 97,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,24; 95,71</t>
+          <t>92,17; 95,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,2; 98,39</t>
+          <t>95,37; 98,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,76; 96,42</t>
+          <t>92,6; 96,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93,79; 96,85</t>
+          <t>93,83; 96,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,48; 96,71</t>
+          <t>94,54; 96,69</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,71; 96,65</t>
+          <t>82,29; 96,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,12; 97,15</t>
+          <t>85,18; 97,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,97; 99,62</t>
+          <t>93,01; 99,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,85; 96,82</t>
+          <t>89,96; 96,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,92; 95,81</t>
+          <t>82,23; 96,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,58; 95,39</t>
+          <t>84,54; 94,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,45; 95,59</t>
+          <t>87,2; 95,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,18; 94,12</t>
+          <t>88,27; 94,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>85,28; 95,04</t>
+          <t>85,05; 95,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87,44; 95,15</t>
+          <t>87,82; 95,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>92,11; 97,02</t>
+          <t>91,79; 97,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>90,27; 94,49</t>
+          <t>90,24; 94,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,38; 99,2</t>
+          <t>95,5; 99,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,31; 97,53</t>
+          <t>89,14; 97,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,61; 95,56</t>
+          <t>84,85; 94,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,39; 95,58</t>
+          <t>90,18; 95,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,18; 98,29</t>
+          <t>91,86; 98,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>84,56; 94,26</t>
+          <t>84,06; 94,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>82,27; 93,59</t>
+          <t>81,91; 93,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,69; 90,65</t>
+          <t>83,58; 90,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94,6; 98,23</t>
+          <t>94,55; 98,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>88,24; 94,95</t>
+          <t>88,09; 95,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>84,55; 92,86</t>
+          <t>84,87; 92,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>88,0; 92,29</t>
+          <t>88,03; 92,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,28; 99,43</t>
+          <t>95,07; 99,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,39; 97,05</t>
+          <t>89,08; 97,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91,76; 97,29</t>
+          <t>92,03; 97,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,62; 98,16</t>
+          <t>95,63; 98,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,83; 98,75</t>
+          <t>93,18; 98,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,71; 95,13</t>
+          <t>89,67; 95,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,34; 94,92</t>
+          <t>88,98; 94,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,4; 99,22</t>
+          <t>91,32; 99,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95,85; 98,89</t>
+          <t>95,62; 98,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>91,03; 95,48</t>
+          <t>90,97; 95,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,35; 95,28</t>
+          <t>91,42; 95,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,18; 98,99</t>
+          <t>94,22; 99,09</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,71; 97,86</t>
+          <t>94,07; 97,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,74; 98,91</t>
+          <t>94,68; 98,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,68; 98,7</t>
+          <t>95,52; 98,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>96,68; 98,55</t>
+          <t>96,62; 98,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,9; 96,3</t>
+          <t>91,18; 96,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>89,82; 95,56</t>
+          <t>89,58; 95,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>93,44; 97,43</t>
+          <t>93,51; 97,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,1; 95,93</t>
+          <t>92,86; 95,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>93,18; 96,53</t>
+          <t>93,17; 96,64</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>92,75; 96,42</t>
+          <t>92,79; 96,55</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>95,24; 97,74</t>
+          <t>95,14; 97,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>95,13; 96,94</t>
+          <t>94,99; 96,87</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>96,54; 98,07</t>
+          <t>96,28; 98,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,29</t>
+          <t>93,51; 96,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>95,15; 96,98</t>
+          <t>95,12; 97,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,59; 96,87</t>
+          <t>95,61; 96,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>94,3; 96,41</t>
+          <t>94,41; 96,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>89,94; 92,75</t>
+          <t>89,78; 92,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>92,25; 94,66</t>
+          <t>92,27; 94,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,58</t>
+          <t>92,05; 96,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>95,63; 96,99</t>
+          <t>95,6; 96,98</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>92,0; 93,87</t>
+          <t>91,91; 93,85</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,5</t>
+          <t>93,8; 95,39</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>93,92; 96,46</t>
+          <t>93,93; 96,49</t>
         </is>
       </c>
     </row>
